--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -451,855 +451,1153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>010150</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>72.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1628,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>96.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519937</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信先锐混合A</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>51.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008918</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信先锐混合C</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1462,25 +1810,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>南方宝元债券A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>190.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7949</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005251</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华多元动力灵活配置混合</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001884</t>
+          <t>002504</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧互通精选混合E</t>
+          <t>鹏华金鼎灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>005251</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>银华多元动力灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方宝元债券A</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.23</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>206013</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>鹏华宏观灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26.23</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>206013</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华宏观灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.40</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>519937</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>长信先锐混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001363</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>长城久惠灵活配置混合</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60.84</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1966,25 +2494,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1994,25 +2532,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>003842</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>中邮景泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2022,25 +2570,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>166007</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>中欧互通精选混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001829</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2134,25 +2722,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>003843</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>中邮景泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>001884</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>中欧互通精选混合E</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>001363</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>长城久惠灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合A</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002505</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合C</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>166007</t>
+          <t>002543</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中欧互通精选混合A</t>
+          <t>长城久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002543</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合A</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>60.29</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002544</t>
+          <t>001829</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合C</t>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>003059</t>
+          <t>002544</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长信先利半年定期开放混合A</t>
+          <t>长城久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2442,25 +3140,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008041</t>
+          <t>003059</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长信先利半年定期开放混合C</t>
+          <t>长信先利半年定期开放混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>002505</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>鹏华金鼎灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003493</t>
+          <t>008918</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合A</t>
+          <t>长信先锐混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>003512</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合C</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>009501</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>国寿安保高股息混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2666,26 +3444,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>9</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2694,26 +3476,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>008041</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3452,7 +3453,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -3484,7 +3484,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -3500,6 +3499,442 @@
       </c>
       <c r="H50" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3940,4 +3941,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1200</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4567,4 +4568,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4576,7 +4577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4587,17 +4588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4607,14 +4628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.99</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4623,14 +4666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.37</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4639,14 +4704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.48</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4655,13 +4742,1327 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5961,7 +5962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5972,17 +5973,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5992,14 +6013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.79</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6008,14 +6051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.99</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6024,14 +6089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.37</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6040,14 +6127,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.48</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6056,13 +6165,2709 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>160.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8750,7 +8751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,17 +8762,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8781,14 +8802,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.66</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8797,14 +8840,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.79</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8813,14 +8878,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.99</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8829,14 +8916,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.37</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8845,14 +8954,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.48</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8861,13 +8992,1885 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>19.13</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>19.66</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>12.79</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>4.99</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.37</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>13.48</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -600,6 +617,3818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2585,7 +6414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5373,7 +9202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6757,7 +10586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7383,7 +11212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7819,7 +11648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9723,7 +13552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601128-常熟银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>25.26</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>19.13</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>19.66</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>12.79</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>4.99</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.37</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>13.48</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1186 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1790,4006 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005652</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富天颐混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005653</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国富天颐混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4428,7 +9601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6414,7 +11587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9202,7 +14375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10586,7 +15759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11212,7 +16385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11648,7 +16821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13550,1160 +18723,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5816</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9293</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8649</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5071</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4428</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3688</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2690</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2564</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2364</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2305</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2067</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1772</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1623</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>